--- a/vertx-pin/zero-ambient/src/main/resources/modulat/zero-f.setting.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/modulat/zero-f.setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74654DF0-021E-1B46-A5C9-58B92B3D76C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9598EA44-B86C-C848-817A-8FC6AC4D4E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49480" yWindow="-17100" windowWidth="53320" windowHeight="24180" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="59380" yWindow="-16000" windowWidth="53320" windowHeight="24180" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
   <si>
     <t>key</t>
   </si>
@@ -387,6 +387,29 @@
   </si>
   <si>
     <t>JSON:modulat/zero-f.setting/SYS_LINK/lic-menu.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务调度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-F.SYS_TASK</t>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.setting/SYS_TASK/ui-config.json</t>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.setting/SYS_TASK/lic-identifier.json</t>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.setting/SYS_TASK/lic-menu.json</t>
+  </si>
+  <si>
+    <t>2d57d295-6526-4325-a9aa-a02c9de65dd9</t>
+  </si>
+  <si>
+    <t>BLOCK_SYS_TASK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -884,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1333,6 +1356,52 @@
         <v>52</v>
       </c>
     </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="8" t="str">
+        <f t="shared" ref="B19" si="1">A$5</f>
+        <v>44ac0b27-5873-4277-b818-575107761166</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1025</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C12:Q12"/>
